--- a/TemplateTestCase.xlsx
+++ b/TemplateTestCase.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victor/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victor/Documents/Coding/Java-Workspace/SE1/Software-Engineering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E296B4-728E-7B49-93CA-5413C5D99F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2109FA-73A5-D744-9E17-3C57EAB29AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5060" yWindow="-21600" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Simple Test Suite" sheetId="8" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId2"/>
+    <sheet name="Simple Test Suite" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
   <si>
     <t>Parameter</t>
   </si>
@@ -140,15 +142,6 @@
     <t>RomanNumberTransformer</t>
   </si>
   <si>
-    <t>"I"</t>
-  </si>
-  <si>
-    <t>"MD"</t>
-  </si>
-  <si>
-    <t>"MMM"</t>
-  </si>
-  <si>
     <t>Fehlermeldung</t>
   </si>
   <si>
@@ -156,13 +149,82 @@
   </si>
   <si>
     <t>MAX_INT</t>
+  </si>
+  <si>
+    <t>uÄK3: NaN</t>
+  </si>
+  <si>
+    <t>"ABC"</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>VII</t>
+  </si>
+  <si>
+    <t>VIII</t>
+  </si>
+  <si>
+    <t>IX</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>XC</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>-23453, 0, 1, 3, 4 , 5, 6, 7, 8, 9, 10, 40, 50, 90, 100, 400, 500, 900, 1000 , 3000, 3001, MAX_INT, MIN_INT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,14 +234,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -206,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -392,19 +446,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -465,13 +506,74 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -506,16 +608,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -524,9 +620,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,11 +917,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2343897F-8A1B-DF4F-A883-68FB5DFA204B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6296BC-2D50-9546-9520-4788661212F5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:F25"/>
+  <dimension ref="C2:F48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScale="163" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="163" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -835,22 +970,22 @@
       <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="3:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="23"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="3:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="11" t="s">
@@ -874,10 +1009,10 @@
         <v>15</v>
       </c>
       <c r="E8" s="4">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.2">
@@ -888,10 +1023,10 @@
         <v>15</v>
       </c>
       <c r="E9" s="4">
-        <v>1500</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>19</v>
+        <v>3000</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.2">
@@ -901,11 +1036,11 @@
       <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="4">
-        <v>3000</v>
+      <c r="E10" s="27">
+        <v>1</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.2">
@@ -913,13 +1048,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.2">
@@ -927,139 +1062,410 @@
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C13" s="3">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="3">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4">
+        <v>5</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="3">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="4">
+        <v>6</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C16" s="3">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4">
+        <v>7</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="3">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="4">
+        <v>8</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C18" s="3">
+        <v>11</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4">
+        <v>9</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="3">
+        <v>12</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="4">
+        <v>10</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="3">
+        <v>13</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="4">
+        <v>40</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="3">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4">
+        <v>50</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="3">
+        <v>15</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="4">
+        <v>90</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="3">
         <v>16</v>
       </c>
-      <c r="E12" s="4">
+      <c r="D23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="4">
+        <v>100</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="3">
+        <v>17</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="4">
+        <v>400</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C25" s="3">
+        <v>18</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="28">
+        <v>500</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C26" s="3">
+        <v>19</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="4">
+        <v>900</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C27" s="3">
+        <v>20</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C28" s="3">
+        <v>21</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C29" s="3">
+        <v>22</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="4">
         <v>-23453</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F29" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C30" s="3">
+        <v>23</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C31" s="3">
+        <v>24</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="16">
+        <v>3001</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C32" s="3">
+        <v>25</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="16">
+        <v>345632</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C33" s="3">
+        <v>26</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="3">
+        <v>27</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C39" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="C40" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1500</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="4">
+        <v>-23453</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="4">
+        <v>345632</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="17">
+      <c r="E44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C47" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="17">
-        <v>7</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="18">
-        <v>3001</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="17">
-        <v>8</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="18">
-        <v>345632</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="16">
-        <v>9</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="C19" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1500</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="4">
-        <v>-23453</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="4">
-        <v>345632</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C24" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C25" s="4"/>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C48" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/TemplateTestCase.xlsx
+++ b/TemplateTestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victor/Documents/Coding/Java-Workspace/SE1/Software-Engineering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2109FA-73A5-D744-9E17-3C57EAB29AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D77981F-BE3F-2F41-8C83-FB9143888546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5060" yWindow="-21600" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5060" yWindow="-21100" windowWidth="38400" windowHeight="21100" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -614,6 +614,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -623,21 +638,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,6 +925,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -937,6 +938,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -970,22 +972,22 @@
       <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="3:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="3:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="11" t="s">
@@ -1036,7 +1038,7 @@
       <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="20">
         <v>1</v>
       </c>
       <c r="F10" s="13" t="s">
@@ -1053,7 +1055,7 @@
       <c r="E11" s="4">
         <v>2</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="19" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1246,7 +1248,7 @@
       <c r="D25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="21">
         <v>500</v>
       </c>
       <c r="F25" s="13" t="s">
@@ -1402,7 +1404,7 @@
       <c r="C41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="4">
@@ -1416,7 +1418,7 @@
       <c r="C42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="4">
@@ -1430,7 +1432,7 @@
       <c r="C43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E43" s="4">
@@ -1444,7 +1446,7 @@
       <c r="C44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="18" t="s">
         <v>21</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -1460,11 +1462,11 @@
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
       <c r="F48" s="1"/>
     </row>
   </sheetData>
@@ -1474,5 +1476,6 @@
     <mergeCell ref="D4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>